--- a/v1.4.0.sdk/TestedCommands.xlsx
+++ b/v1.4.0.sdk/TestedCommands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/thomas_beha_hpe_com/Documents/Software/Github/DSCC-Powershell-SDK/v1.4.0.sdk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{E3C52CD3-9AB0-46CC-85DF-8D4F940225A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77368DDB-8F5D-4BAF-B0ED-72746FD1946A}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{E3C52CD3-9AB0-46CC-85DF-8D4F940225A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4E35B1B-BBFB-4E78-B998-FA1ABCB59163}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B4107987-8BEF-48A0-8610-3996C9816382}"/>
+    <workbookView xWindow="5865" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{B4107987-8BEF-48A0-8610-3996C9816382}"/>
   </bookViews>
   <sheets>
     <sheet name="Tested Commands" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <t>Command</t>
   </si>
@@ -455,26 +455,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000080"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -518,6 +505,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -551,31 +561,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,556 +903,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B922D0-2373-4DCF-B441-CF5311E85187}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="22" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="34.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" customWidth="1"/>
+    <col min="4" max="4" width="74" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="22" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="6"/>
+      <c r="G33" s="4" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F32" xr:uid="{41B922D0-2373-4DCF-B441-CF5311E85187}"/>
@@ -1449,137 +1507,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACB442-E720-4E62-A6AE-E9C01C7F1EE8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8" style="6" customWidth="1"/>
-    <col min="4" max="4" width="74" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="22" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="34.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" customWidth="1"/>
+    <col min="4" max="4" width="74" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="22" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>117</v>
+      <c r="A3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>120</v>
+      <c r="A4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
+      <c r="A5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{41B922D0-2373-4DCF-B441-CF5311E85187}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/v1.4.0.sdk/TestedCommands.xlsx
+++ b/v1.4.0.sdk/TestedCommands.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/thomas_beha_hpe_com/Documents/Software/Github/DSCC-Powershell-SDK/v1.4.0.sdk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{E3C52CD3-9AB0-46CC-85DF-8D4F940225A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4E35B1B-BBFB-4E78-B998-FA1ABCB59163}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="8_{E3C52CD3-9AB0-46CC-85DF-8D4F940225A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E83406-D090-4064-969E-14F93184FC53}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{B4107987-8BEF-48A0-8610-3996C9816382}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4107987-8BEF-48A0-8610-3996C9816382}"/>
   </bookViews>
   <sheets>
     <sheet name="Tested Commands" sheetId="1" r:id="rId1"/>
-    <sheet name="Todo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tested Commands'!$A$1:$F$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Todo!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tested Commands'!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="263">
   <si>
     <t>Command</t>
   </si>
@@ -397,15 +395,6 @@
     <t>/api/v1/audit-events</t>
   </si>
   <si>
-    <t>Invoke-DeviceType2GetEvents</t>
-  </si>
-  <si>
-    <t>Get all events of Nimble / Alletra 6K</t>
-  </si>
-  <si>
-    <t>/api/v1/storage-systems/device-type2/{systemId}/events</t>
-  </si>
-  <si>
     <t>Get-AccessControls</t>
   </si>
   <si>
@@ -424,38 +413,428 @@
     <t>/api/v1/resource-types</t>
   </si>
   <si>
-    <t>Invoke-DeviceType1NodeBatteriesGetById</t>
-  </si>
-  <si>
-    <t>Get details of Primera / Alletra 9K Node Battery identified by {nodeId} and {id}</t>
-  </si>
-  <si>
-    <t>/api/v1/storage-systems/device-type1/{systemId}/nodes/{nodeId}/nodes-batteries/{id}</t>
-  </si>
-  <si>
-    <t>Invoke-DeviceType1NodeCardsListGetById</t>
-  </si>
-  <si>
-    <t>Get details of Primera / Alletra 9K Node Cards identified by {nodeId}</t>
-  </si>
-  <si>
-    <t>/api/v1/storage-systems/device-type1/{systemId}/nodes/{nodeId}/node-cards</t>
-  </si>
-  <si>
-    <t>Invoke-DeviceType1NodeComponentPerformanceStatisticsGet</t>
-  </si>
-  <si>
-    <t>Get component performance statistics details of Primera / Alletra 9K node idenfified by {nodeId}</t>
-  </si>
-  <si>
-    <t>/api/v1/storage-systems/device-type1/{systemId}/nodes/{nodeId}/component-performance-statistics</t>
+    <t>Invoke-DeviceType2GetAllPorts</t>
+  </si>
+  <si>
+    <t>Get all ports details of Nimble / Alletra 6K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/ports</t>
+  </si>
+  <si>
+    <t>SystemType</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetAllProtectionTemplates</t>
+  </si>
+  <si>
+    <t>Get all protection-templates details by Nimble / Alletra 6K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/protection-templates</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1EnclosuresList</t>
+  </si>
+  <si>
+    <t>Get details of Primera / Alletra 9K Enclosures</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/enclosures</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetAllShelves</t>
+  </si>
+  <si>
+    <t>Get all shelves details by Nimble / Alletra 6K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/shelves</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetShelfById</t>
+  </si>
+  <si>
+    <t>Get details of Nimble / Alletra 6K Shelf identified by {shelfId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/shelves/{shelfId}</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4EnclosuresList</t>
+  </si>
+  <si>
+    <t>Get details of HPE Alletra Storage MP Enclosures</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/enclosures</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4PhysicalDrivePerformanceHistoryGet</t>
+  </si>
+  <si>
+    <t> Get details of performance metrics of physical drives on storage system identified by {systemid}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/physicaldrives-performance</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1StoragePoolList</t>
+  </si>
+  <si>
+    <t>Get all storage-pools details by Primera / Alletra 9K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/storage-pools</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1StoragePoolVolumeGetById</t>
+  </si>
+  <si>
+    <t>Get all volumes for storage-pool identified by {uuid} of Primera / Alletra 9K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/storage-pools/{id}/volumes</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1StoragePoolGetById</t>
+  </si>
+  <si>
+    <t> Get details of Primera / Alletra 9K storage-pool identified by {id}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/storage-pools/{id}</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetAllPoolDetails</t>
+  </si>
+  <si>
+    <t>Get all pools details by Nimble / Alletra 6K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/storage-pools</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetPoolCapacityHistory</t>
+  </si>
+  <si>
+    <t>Get storage pool capacity trend data of Nimble / Alletra 6K storage pool identified by {storagePoolId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/storage-pools/{storagePoolId}/capacity-history</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetPoolDetailById</t>
+  </si>
+  <si>
+    <t>Get details of Nimble / Alletra 6K pool identified by {storagePoolId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/storage-pools/{storagePoolId}</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetPoolPerformanceHistory</t>
+  </si>
+  <si>
+    <t>Get performance trend data of Nimble / Alletra 6K storage pool identified by {storagePoolId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/storage-pools/{storagePoolId}/performance-history</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetPoolPerformanceStatistics</t>
+  </si>
+  <si>
+    <t>Get performance statistics of Nimble / Alletra 6K storage pool identified by {storagePoolId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/storage-pools/{storagePoolId}/performance-statistics</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType2GetPoolsPerformanceHistory</t>
+  </si>
+  <si>
+    <t>Get performance history of Nimble / Alletra 6K Pools</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/pools-performance</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4StoragePoolList</t>
+  </si>
+  <si>
+    <t>Get all storage-pools details by HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/storage-pools</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4StoragePoolGetById</t>
+  </si>
+  <si>
+    <t>Get details of HPE Alletra Storage MP storage-pool identified by {id}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/storage-pools/{id}</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4StoragePoolVolumeGetById</t>
+  </si>
+  <si>
+    <t>Get all volumes for storage-pool identified by {uuid} of HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/storage-pools/{id}/volumes</t>
+  </si>
+  <si>
+    <t>Invoke-StoragePoolVolumesList</t>
+  </si>
+  <si>
+    <t>Get all volumes for storage-pool identified by {id}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/{systemId}/storage-pools/{id}/volumes</t>
+  </si>
+  <si>
+    <t>Invoke-StoragePoolsGetById</t>
+  </si>
+  <si>
+    <t>Get details of storage pools identified by {id}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/{systemId}/storage-pools/{id}</t>
+  </si>
+  <si>
+    <t>Invoke-StoragePoolsList</t>
+  </si>
+  <si>
+    <t>Get all storage pools for a device {systemId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/{systemId}/storage-pools</t>
+  </si>
+  <si>
+    <t>Invoke-Device1headroomUtilizationGet</t>
+  </si>
+  <si>
+    <t>Get system level saturation details</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/headroom-utilization</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1ApplicationSummaryGet</t>
+  </si>
+  <si>
+    <t>Get Application Summary for a storage system Primera / Alletra 9K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/application-summary</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1GetSystemPerformanceStatistics</t>
+  </si>
+  <si>
+    <t>Get performance statistics for a storage system Primera / Alletra 9K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/performance-statistics</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1QoSPolicyGetBySystemId</t>
+  </si>
+  <si>
+    <t>Get QoS policy data for a storage system Primera / Alletra 9K identified by {systemId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/qos-policy</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1RecommendationsGet</t>
+  </si>
+  <si>
+    <t>Get recommendations for a storage system Primera / Alletra 9K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/recommendations</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1SystemCapacityHistoryGet</t>
+  </si>
+  <si>
+    <t>Get capacity trend data for a storage system Primera / Alletra 9K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/capacity-history</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1SystemComponentPerformanceStatisticsGet</t>
+  </si>
+  <si>
+    <t>Get component performance statistics details for a storage system Primera / Alletra 9K idenfified by {systemId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/component-performance-statistics</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1SystemGetById*</t>
+  </si>
+  <si>
+    <t>Get Primera / Alletra 9K object identified by {id}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{id}</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType1SystemPerformanceHistoryGet</t>
+  </si>
+  <si>
+    <t>Get performance trend data for a storage system Primera / Alletra 9K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type1/{systemId}/performance-history</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4ApplicationSummaryGet</t>
+  </si>
+  <si>
+    <t>Get Application Summary for a storage system HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/application-summary</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4GetSystemPerformanceStatistics</t>
+  </si>
+  <si>
+    <t>Get performance statistics for a storage system HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/performance-statistics</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4LicensesGetById</t>
+  </si>
+  <si>
+    <t>Get licenses of the storage system identified by {systemId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/licenses</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4RecommendationsGet</t>
+  </si>
+  <si>
+    <t>Get recommendations for a storage system HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/recommendations</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4SystemCapacityHistoryGet</t>
+  </si>
+  <si>
+    <t>Get capacity trend data for a storage system HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/capacity-history</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4SystemCapacitySummaryGet</t>
+  </si>
+  <si>
+    <t>Get system capacity for a storage system HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/capacity-summary</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4SystemComponentPerformanceStatisticsGet</t>
+  </si>
+  <si>
+    <t>Get component performance statistics details for a storage system HPE Alletra Storage MP idenfified by {systemId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/component-performance-statistics</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4SystemGetById</t>
+  </si>
+  <si>
+    <t>Get HPE Alletra Storage MP object identified by {id}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{id}</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4SystemPerformanceHistoryGet</t>
+  </si>
+  <si>
+    <t>Get performance trend data for a storage system HPE Alletra Storage MP</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/performance-history</t>
+  </si>
+  <si>
+    <t>Invoke-DeviceType4SystemsList</t>
+  </si>
+  <si>
+    <t>Get all HPE Alletra Storage MP storage systems</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4</t>
+  </si>
+  <si>
+    <t>Get-DeviceType</t>
+  </si>
+  <si>
+    <t>Get all device types</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/storage-types</t>
+  </si>
+  <si>
+    <t>Get-DeviceType2ArrayById</t>
+  </si>
+  <si>
+    <t>Get details of Nimble / Alletra 6K array identified by {arrayId}</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/arrays/{arrayId}</t>
+  </si>
+  <si>
+    <t>Get-DeviceType2Arrays</t>
+  </si>
+  <si>
+    <t>Get all arrays details by Nimble / Alletra 6K</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type2/{systemId}/arrays</t>
+  </si>
+  <si>
+    <t>Get-HeadroomContribution</t>
+  </si>
+  <si>
+    <t>Get Top headroom contribution by volumes/Apps for device-type4</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/insights/headroom-contribution</t>
+  </si>
+  <si>
+    <t>Get-VolumeLatencyHotspots</t>
+  </si>
+  <si>
+    <t>Get volume latency hotspots for device-type4</t>
+  </si>
+  <si>
+    <t>/api/v1/storage-systems/device-type4/{systemId}/insights/volume-hotspots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,70 +845,18 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +875,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -561,34 +894,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,6 +918,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,706 +1221,1568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B922D0-2373-4DCF-B441-CF5311E85187}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" customWidth="1"/>
-    <col min="4" max="4" width="74" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="22" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="59.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="74" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="H46" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="D64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2" t="s">
+      <c r="F65" s="4"/>
+      <c r="G65" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2" t="s">
+      <c r="F66" s="4"/>
+      <c r="G66" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="D67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="D68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E69" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2" t="s">
+      <c r="F69" s="4"/>
+      <c r="G69" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2" t="s">
+      <c r="F70" s="4"/>
+      <c r="G70" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="D71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="D72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="E76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="E77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="D86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="G33" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="5"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F32" xr:uid="{41B922D0-2373-4DCF-B441-CF5311E85187}"/>
+  <autoFilter ref="A1:G38" xr:uid="{41B922D0-2373-4DCF-B441-CF5311E85187}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H93">
+    <sortCondition ref="A2:A93"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACB442-E720-4E62-A6AE-E9C01C7F1EE8}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" customWidth="1"/>
-    <col min="4" max="4" width="74" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="22" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{41B922D0-2373-4DCF-B441-CF5311E85187}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>